--- a/config/default/forms/app/hts_screening.xlsx
+++ b/config/default/forms/app/hts_screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grmfutures-my.sharepoint.com/personal/valentine_komulo_thepalladiumgroup_com/Documents/eHTS_Forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{C795B10D-D517-4BDD-A293-828E20EE8E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E22C2C89-A083-4F18-A435-08360826627F}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{C795B10D-D517-4BDD-A293-828E20EE8E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{10D19D54-E8C4-4DE1-B849-212F22BA0310}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="47880" yWindow="-120" windowWidth="30960" windowHeight="16920" tabRatio="996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="156">
   <si>
     <t>type</t>
   </si>
@@ -335,12 +335,6 @@
     <t>Negative</t>
   </si>
   <si>
-    <t>_163611_invalid_99DCT</t>
-  </si>
-  <si>
-    <t>Invalid</t>
-  </si>
-  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -384,6 +378,132 @@
   </si>
   <si>
     <t>selected(${_164401_everTestedByProvider_99DCT},'_1065_yes_99DCT')</t>
+  </si>
+  <si>
+    <t>group_review</t>
+  </si>
+  <si>
+    <t>Summary page</t>
+  </si>
+  <si>
+    <t>field-list summary</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>n_submit</t>
+  </si>
+  <si>
+    <t>_Be sure you submit to complete this action._</t>
+  </si>
+  <si>
+    <t>n_household_details_title</t>
+  </si>
+  <si>
+    <t>Client details&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>h1 yellow</t>
+  </si>
+  <si>
+    <t>n_household_details</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="text-align:center;"&gt;${place_name} ${head}&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>n_assessment_findings</t>
+  </si>
+  <si>
+    <t>Assessment findings&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>h1 blue</t>
+  </si>
+  <si>
+    <t>n_drinking_water_source</t>
+  </si>
+  <si>
+    <t>**_Population Type_**</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>selected(../../observation/_160112_poulationType_99DCT, '_1065_HP_99DCT')</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>np</t>
+  </si>
+  <si>
+    <t>selected(../../observation/_164930_populationType_99DCT, '_1066_HP_99DCT')</t>
+  </si>
+  <si>
+    <t>**_Department_**</t>
+  </si>
+  <si>
+    <t>opd</t>
+  </si>
+  <si>
+    <t>selected(../../observation/_159936_department_99DCT, '_160542_OPD_99DCT')</t>
+  </si>
+  <si>
+    <t>ipd</t>
+  </si>
+  <si>
+    <t>selected(../../observation/_159936_department_99DCT, '_5485_IPD_99DCT')</t>
+  </si>
+  <si>
+    <t>hiv_tested_before</t>
+  </si>
+  <si>
+    <t>**_Tested for HIV before_**</t>
+  </si>
+  <si>
+    <t>selected(../../observation/_164401_everTestedByProvider_99DCT, '_1065_yes_99DCT')</t>
+  </si>
+  <si>
+    <t>selected(../../observation/_164401_everTestedByProvider_99DCT, '_1066_no_99DCT')</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>**_Test result_**</t>
+  </si>
+  <si>
+    <t>results_positive</t>
+  </si>
+  <si>
+    <t>selected(../../observation/_159427_testResults_99DCT, '_703_positive_99DCT')</t>
+  </si>
+  <si>
+    <t>results_negative</t>
+  </si>
+  <si>
+    <t>selected(../../observation/_159427_testResults_99DCT, '_664_negative_99DCT')</t>
+  </si>
+  <si>
+    <t>testeligible</t>
+  </si>
+  <si>
+    <t>**_Client eligible for testing_**</t>
+  </si>
+  <si>
+    <t>eligible_yes</t>
+  </si>
+  <si>
+    <t>selected(../../observation/_162699_eligibleForTesting_99DCT, '_1065_yes_99DCT')</t>
+  </si>
+  <si>
+    <t>eligible_no</t>
+  </si>
+  <si>
+    <t>selected(../../observation/_162699_eligibleForTesting_99DCT, '_1066_no_99DCT')</t>
   </si>
 </sst>
 </file>
@@ -474,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -512,11 +632,625 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="125">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -1111,8 +1845,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{B8DC9781-D3BA-4DEF-9A03-B73BEA78AD9F}">
-      <tableStyleElement type="wholeTable" dxfId="59"/>
-      <tableStyleElement type="headerRow" dxfId="58"/>
+      <tableStyleElement type="wholeTable" dxfId="124"/>
+      <tableStyleElement type="headerRow" dxfId="123"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1491,11 +2225,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <selection pane="topRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2649,7 +3383,7 @@
         <v>64</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -2686,7 +3420,7 @@
         <v>57</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
@@ -2721,7 +3455,7 @@
         <v>77</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2748,13 +3482,13 @@
     </row>
     <row r="37" spans="1:25" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -2808,279 +3542,1406 @@
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
     </row>
+    <row r="39" spans="1:25" ht="27" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+    </row>
+    <row r="40" spans="1:25" ht="27" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+    </row>
+    <row r="41" spans="1:25" ht="27" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+    </row>
+    <row r="42" spans="1:25" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+    </row>
+    <row r="43" spans="1:25" ht="27" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+    </row>
+    <row r="44" spans="1:25" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+    </row>
+    <row r="45" spans="1:25" ht="27" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+    </row>
+    <row r="46" spans="1:25" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+    </row>
+    <row r="47" spans="1:25" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+    </row>
+    <row r="48" spans="1:25" ht="27" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+    </row>
+    <row r="49" spans="1:25" ht="27" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+    </row>
+    <row r="50" spans="1:25" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+    </row>
+    <row r="51" spans="1:25" ht="27" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+    </row>
+    <row r="52" spans="1:25" ht="27" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+    </row>
+    <row r="53" spans="1:25" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+    </row>
+    <row r="54" spans="1:25" ht="27" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+    </row>
+    <row r="55" spans="1:25" ht="27" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+    </row>
+    <row r="56" spans="1:25" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+    </row>
+    <row r="57" spans="1:25" ht="27" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+    </row>
+    <row r="58" spans="1:25" ht="27" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+    </row>
+    <row r="59" spans="1:25" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+    </row>
+    <row r="60" spans="1:25" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+    </row>
+    <row r="61" spans="1:25" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+    </row>
+    <row r="62" spans="1:25" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="57" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="122" priority="79" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="56" priority="15" operator="notContains" text="label"/>
+    <cfRule type="notContainsText" dxfId="121" priority="80" operator="notContains" text="label"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="55" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="120" priority="81" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="54" priority="17" operator="notEqual">
+    <cfRule type="cellIs" dxfId="119" priority="82" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="53" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="118" priority="83" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="52" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="117" priority="84" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="51" priority="20" operator="notContains" text="constraint_message"/>
+    <cfRule type="notContainsText" dxfId="116" priority="85" operator="notContains" text="constraint_message"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="50" priority="21" operator="notEqual">
+    <cfRule type="cellIs" dxfId="115" priority="86" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="49" priority="22" operator="notEqual">
+    <cfRule type="cellIs" dxfId="114" priority="87" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="48" priority="23" operator="notContains" text="hint"/>
+    <cfRule type="notContainsText" dxfId="113" priority="88" operator="notContains" text="hint"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="47" priority="24" operator="notEqual">
+    <cfRule type="cellIs" dxfId="112" priority="89" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:Y1">
-    <cfRule type="cellIs" dxfId="46" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="111" priority="90" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:Y34">
-    <cfRule type="containsText" dxfId="45" priority="26" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="110" priority="91" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:Y34">
-    <cfRule type="cellIs" dxfId="44" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="94" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" dxfId="43" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="95" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="42" priority="37" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="107" priority="102" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="41" priority="38">
+    <cfRule type="expression" dxfId="106" priority="103">
       <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="40" priority="39">
+    <cfRule type="expression" dxfId="105" priority="104">
       <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="105" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="106" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="37" priority="42">
+    <cfRule type="expression" dxfId="102" priority="107">
       <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="36" priority="43">
+    <cfRule type="expression" dxfId="101" priority="108">
       <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:E34">
-    <cfRule type="containsText" dxfId="35" priority="44" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="100" priority="109" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:E34">
-    <cfRule type="cellIs" dxfId="34" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="110" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A34">
-    <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="111" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E34">
-    <cfRule type="containsText" dxfId="32" priority="47" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="97" priority="112" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="31" priority="48">
+    <cfRule type="expression" dxfId="96" priority="113">
       <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $I33 = "", $M33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E34">
-    <cfRule type="cellIs" dxfId="30" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="114" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="29" priority="50">
+    <cfRule type="expression" dxfId="94" priority="115">
       <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $I33 = "", $M33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:Y29">
-    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="93" priority="116" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:Y29">
-    <cfRule type="cellIs" dxfId="27" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="117" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="26" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="118" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="containsText" dxfId="25" priority="54" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="90" priority="119" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="expression" dxfId="24" priority="55">
+    <cfRule type="expression" dxfId="89" priority="120">
       <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="expression" dxfId="23" priority="56">
+    <cfRule type="expression" dxfId="88" priority="121">
       <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="cellIs" dxfId="22" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="122" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" dxfId="21" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="123" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="expression" dxfId="20" priority="59">
+    <cfRule type="expression" dxfId="85" priority="124">
       <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="expression" dxfId="19" priority="60">
+    <cfRule type="expression" dxfId="84" priority="125">
       <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="18" priority="61">
+    <cfRule type="expression" dxfId="83" priority="126">
       <formula>AND($I35 = "", $A35 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="17" priority="62">
+    <cfRule type="expression" dxfId="82" priority="127">
       <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $C35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="16" priority="63">
+    <cfRule type="expression" dxfId="81" priority="128">
       <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $B35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="15" priority="64">
+    <cfRule type="expression" dxfId="80" priority="129">
       <formula>AND(NOT($G35 = ""), $H35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="14" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="130" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="13" priority="67">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$986, "begin group") = COUNTIF($A$1:$A$986, "end group"))</formula>
+    <cfRule type="expression" dxfId="78" priority="132">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1011, "begin group") = COUNTIF($A$1:$A$1011, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="12" priority="68">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$977, "begin group") = COUNTIF($A$1:$A$986, "end group")))</formula>
+    <cfRule type="expression" dxfId="77" priority="133">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1002, "begin group") = COUNTIF($A$1:$A$1011, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="76" priority="66" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="75" priority="67">
       <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="74" priority="68">
       <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="69" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="72" priority="70">
       <formula>AND($I37 = "", $A37 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="71" priority="71">
       <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $C37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="70" priority="72">
       <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="73" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>COUNTIF($B$2:$B$1015,B37)&gt;1</formula>
+    <cfRule type="expression" dxfId="68" priority="74">
+      <formula>COUNTIF($B$2:$B$1040,B37)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="67" priority="75">
       <formula>AND(NOT($G37 = ""), $H37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="66" priority="76">
       <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="65" priority="77">
       <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E53">
+    <cfRule type="containsText" dxfId="64" priority="59" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E53">
+    <cfRule type="cellIs" dxfId="63" priority="60" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E53">
+    <cfRule type="expression" dxfId="62" priority="61">
+      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E53">
+    <cfRule type="expression" dxfId="61" priority="62">
+      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E53">
+    <cfRule type="expression" dxfId="60" priority="63">
+      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E53">
+    <cfRule type="expression" dxfId="59" priority="64">
+      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="containsText" dxfId="57" priority="2" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="expression" dxfId="56" priority="3">
+      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="expression" dxfId="55" priority="4">
+      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="expression" dxfId="53" priority="6">
+      <formula>AND($I55 = "", $A55 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="52" priority="7">
+      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="expression" dxfId="51" priority="8">
+      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="expression" dxfId="49" priority="10">
+      <formula>AND(NOT($G55 = ""), $H55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="expression" dxfId="48" priority="11">
+      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="expression" dxfId="47" priority="12">
+      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y60">
+    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y60">
+    <cfRule type="expression" dxfId="45" priority="14">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y60">
+    <cfRule type="expression" dxfId="44" priority="15">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y60">
+    <cfRule type="cellIs" dxfId="43" priority="16" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="expression" dxfId="42" priority="17">
+      <formula>AND($I60 = "", $A60 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="41" priority="18">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" dxfId="40" priority="19">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="cellIs" dxfId="39" priority="20" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="expression" dxfId="38" priority="21">
+      <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y60">
+    <cfRule type="expression" dxfId="37" priority="22">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y60">
+    <cfRule type="expression" dxfId="36" priority="23">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:Y61">
+    <cfRule type="containsText" dxfId="35" priority="24" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:Y61">
+    <cfRule type="expression" dxfId="34" priority="25">
+      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:Y61">
+    <cfRule type="expression" dxfId="33" priority="26">
+      <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:Y61">
+    <cfRule type="cellIs" dxfId="32" priority="27" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
+    <cfRule type="expression" dxfId="31" priority="28">
+      <formula>AND($I61 = "", $A61 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="30" priority="29">
+      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $C61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $B61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="expression" dxfId="27" priority="32">
+      <formula>AND(NOT($G61 = ""), $H61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:Y61">
+    <cfRule type="expression" dxfId="26" priority="33">
+      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:Y61">
+    <cfRule type="expression" dxfId="25" priority="34">
+      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="expression" dxfId="23" priority="36">
+      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="expression" dxfId="22" priority="37">
+      <formula>AND($A62="end group", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="cellIs" dxfId="21" priority="38" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="cellIs" dxfId="20" priority="39" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="expression" dxfId="19" priority="40">
+      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="expression" dxfId="18" priority="41">
+      <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="containsText" dxfId="17" priority="42" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="16" priority="43">
+      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="15" priority="44">
+      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="14" priority="45" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="13" priority="46">
+      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="12" priority="47">
+      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="containsText" dxfId="11" priority="48" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="10" priority="49">
+      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="9" priority="50">
+      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="8" priority="51" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="7" priority="52">
+      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="6" priority="53">
+      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59">
+    <cfRule type="expression" dxfId="5" priority="54">
+      <formula>AND($I59 = "", $A59 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="4" priority="55">
+      <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $C59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="expression" dxfId="3" priority="56">
+      <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $B59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="cellIs" dxfId="2" priority="57" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="expression" dxfId="1" priority="58">
+      <formula>AND(NOT($G59 = ""), $H59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="expression" dxfId="0" priority="65">
+      <formula>COUNTIF($B$2:$B$1032,B61)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D38" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D62" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3092,11 +4953,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1048508"/>
+  <dimension ref="A1:F1048507"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3281,24 +5142,10 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
+    <row r="1048504" ht="12.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1048505" ht="12.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1048506" ht="12.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1048507" ht="12.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1048508" ht="12.95" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3323,40 +5170,40 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">NOW()</f>
-        <v>44062.823418055559</v>
+        <v>44064.113271064816</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F2" s="9"/>
     </row>

--- a/config/default/forms/app/hts_screening.xlsx
+++ b/config/default/forms/app/hts_screening.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="162">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -78,6 +78,24 @@
     <t xml:space="preserve">field-list</t>
   </si>
   <si>
+    <t xml:space="preserve">user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO_LABEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facility_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end group</t>
+  </si>
+  <si>
     <t xml:space="preserve">hidden</t>
   </si>
   <si>
@@ -87,9 +105,6 @@
     <t xml:space="preserve">Source</t>
   </si>
   <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
     <t xml:space="preserve">source_id</t>
   </si>
   <si>
@@ -126,9 +141,6 @@
     <t xml:space="preserve">Name of head of household</t>
   </si>
   <si>
-    <t xml:space="preserve">end group</t>
-  </si>
-  <si>
     <t xml:space="preserve">parent</t>
   </si>
   <si>
@@ -147,9 +159,6 @@
     <t xml:space="preserve">calculate</t>
   </si>
   <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">../inputs/source</t>
   </si>
   <si>
@@ -424,6 +433,15 @@
   </si>
   <si>
     <t xml:space="preserve">selected(../../observation/_162699_eligibleForTesting_99DCT, '_1066_no_99DCT')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audit_trail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">created_by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../inputs/user/name</t>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -500,7 +518,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD\-MM\-YYYY\ HH\-MM\-SS"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -553,12 +571,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF76A5AF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB7B7B7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC27BA0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +621,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -606,7 +670,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -643,11 +707,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1914,30 +2002,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.8877551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="51.8367346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="67.3163265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="98.8163265306122"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.3877551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.7704081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.5867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.4591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.90816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.5969387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.219387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="53.6377551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="69.6581632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="102.413265306122"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.8469387755102"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="41.1275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="19.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2030,54 +2118,41 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -2086,27 +2161,16 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2119,33 +2183,20 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -2154,31 +2205,16 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -2187,27 +2223,16 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2217,7 +2242,9 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="L8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -2234,19 +2261,17 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -2269,17 +2294,17 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -2302,13 +2327,19 @@
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -2331,13 +2362,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2367,14 +2398,14 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -2397,17 +2428,19 @@
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2430,17 +2463,17 @@
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>37</v>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2463,17 +2496,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -2496,13 +2525,17 @@
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -2525,10 +2558,14 @@
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2554,10 +2591,14 @@
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2583,10 +2624,14 @@
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2612,10 +2657,14 @@
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2641,22 +2690,16 @@
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -2676,22 +2719,16 @@
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -2710,202 +2747,180 @@
       <c r="Y23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5" t="s">
+      <c r="B27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5" t="s">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-    </row>
-    <row r="29" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -2925,22 +2940,22 @@
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="I30" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -2960,24 +2975,25 @@
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
@@ -2994,20 +3010,22 @@
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>67</v>
+        <v>53</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -3027,24 +3045,25 @@
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -3059,25 +3078,27 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>74</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="G34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -3096,29 +3117,23 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -3139,15 +3154,17 @@
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -3155,7 +3172,6 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -3172,19 +3188,19 @@
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -3204,12 +3220,18 @@
       <c r="Y37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="A38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -3217,7 +3239,6 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
@@ -3233,20 +3254,22 @@
       <c r="Y38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>13</v>
+      <c r="A39" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -3267,21 +3290,29 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>86</v>
+    <row r="40" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="G40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -3300,21 +3331,19 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>86</v>
+    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -3335,21 +3364,21 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>86</v>
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -3368,21 +3397,15 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>95</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -3403,122 +3426,118 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
+      <c r="C44" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-    </row>
-    <row r="46" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+    </row>
+    <row r="46" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+    </row>
+    <row r="47" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -3545,58 +3564,52 @@
     </row>
     <row r="48" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-    </row>
-    <row r="49" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>112</v>
+        <v>89</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -3617,55 +3630,59 @@
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-    </row>
-    <row r="51" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>57</v>
+    <row r="50" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+    </row>
+    <row r="51" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -3687,130 +3704,126 @@
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
     </row>
-    <row r="52" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+    </row>
+    <row r="53" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-    </row>
-    <row r="55" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
-        <v>86</v>
+        <v>105</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D55" s="5"/>
-      <c r="E55" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -3831,55 +3844,59 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
-        <v>86</v>
+      <c r="A57" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -3901,50 +3918,56 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
     </row>
-    <row r="58" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+    </row>
+    <row r="59" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="D59" s="5"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="5"/>
+      <c r="E59" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -3965,13 +3988,23 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+    <row r="60" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="D60" s="5"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -3993,12 +4026,18 @@
       <c r="Y60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+      <c r="A61" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D61" s="5"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -4019,34 +4058,255 @@
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+    </row>
+    <row r="63" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
@@ -4103,535 +4363,539 @@
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:Y34">
+  <conditionalFormatting sqref="A39:Y39">
     <cfRule type="containsText" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:Y34">
+  <conditionalFormatting sqref="A39:Y39">
     <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
+  <conditionalFormatting sqref="A39">
     <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
+  <conditionalFormatting sqref="A43">
     <cfRule type="containsText" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
+  <conditionalFormatting sqref="A43">
     <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
-      <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
     <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
     <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
+  <conditionalFormatting sqref="A43">
     <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
+  <conditionalFormatting sqref="A43">
     <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
-      <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
     <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
-      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E34">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:E39">
     <cfRule type="containsText" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E34">
+  <conditionalFormatting sqref="E37:E39">
     <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:A34">
+  <conditionalFormatting sqref="A38:A39">
     <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E34">
+  <conditionalFormatting sqref="E38:E39">
     <cfRule type="containsText" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
+  <conditionalFormatting sqref="E38">
     <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
-      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $I33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E34">
+      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $I38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E39">
     <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
+  <conditionalFormatting sqref="E38">
     <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $I33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:Y29">
+      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $I38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:Y34">
     <cfRule type="containsText" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:Y29">
+  <conditionalFormatting sqref="A34:Y34">
     <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A34">
     <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
+  <conditionalFormatting sqref="A40:Y40">
     <cfRule type="containsText" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
+  <conditionalFormatting sqref="A40:Y40">
     <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
-      <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
+      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:Y40">
     <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
-      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
+      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:Y40">
     <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A40">
     <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
+  <conditionalFormatting sqref="A40:Y40">
     <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
+      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:Y40">
     <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
-      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
+      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
     <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>AND($I35 = "", $A35 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+      <formula>AND($I40 = "", $A40 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
     <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
-      <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $C35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
+      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $C40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
     <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $B35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $B40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
     <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
-      <formula>AND(NOT($G35 = ""), $H35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+      <formula>AND(NOT($G40 = ""), $H40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
     <cfRule type="cellIs" priority="45" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1011, "begin group") = COUNTIF($A$1:$A$1011, "end group"))</formula>
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1016, "begin group") = COUNTIF($A$1:$A$1016, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1002, "begin group") = COUNTIF($A$1:$A$1011, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1007, "begin group") = COUNTIF($A$1:$A$1016, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:Y42">
     <cfRule type="containsText" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
+  <conditionalFormatting sqref="A42:Y42">
     <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
-      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
+      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:Y42">
     <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
-      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
+      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:Y42">
     <cfRule type="cellIs" priority="51" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
+  <conditionalFormatting sqref="I42">
     <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>AND($I37 = "", $A37 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
+      <formula>AND($I42 = "", $A42 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
     <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
-      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $C37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
+      <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $C42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
     <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
-      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
+      <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $B42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
     <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
+  <conditionalFormatting sqref="B42">
     <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
-      <formula>COUNTIF($B$2:$B$1040,B37)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+      <formula>COUNTIF($B$2:$B$1045,B42)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
     <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
-      <formula>AND(NOT($G37 = ""), $H37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
+      <formula>AND(NOT($G42 = ""), $H42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:Y42">
     <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
-      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
+      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:Y42">
     <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
-      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E53">
+      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:E58">
     <cfRule type="containsText" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E53">
+  <conditionalFormatting sqref="E56:E58">
     <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E53">
+  <conditionalFormatting sqref="E56:E58">
     <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
-      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E53">
+      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:E58">
     <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
-      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E53">
+      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:E58">
     <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
-      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E53">
+      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:E58">
     <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
-      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
+      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
     <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
+  <conditionalFormatting sqref="A60:Y60">
     <cfRule type="containsText" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
+  <conditionalFormatting sqref="A60:Y60">
     <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
-      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y60">
     <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
-      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y60">
     <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
+  <conditionalFormatting sqref="I60">
     <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
-      <formula>AND($I55 = "", $A55 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
+      <formula>AND($I60 = "", $A60 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
     <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
-      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
     <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
-      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
     <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
+  <conditionalFormatting sqref="H60">
     <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
-      <formula>AND(NOT($G55 = ""), $H55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
+      <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y60">
     <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
-      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y60">
     <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="75">
-      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y60">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:Y65">
     <cfRule type="containsText" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="76"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y60">
+  <conditionalFormatting sqref="A65:Y65">
     <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y60">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:Y65">
     <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
-      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y60">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:Y65">
     <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
+  <conditionalFormatting sqref="I65">
     <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80">
-      <formula>AND($I60 = "", $A60 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
+      <formula>AND($I65 = "", $A65 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
     <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
+      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
     <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
+      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $B65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
     <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="83">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
+  <conditionalFormatting sqref="H65">
     <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="84">
-      <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y60">
+      <formula>AND(NOT($G65 = ""), $H65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:Y65">
     <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y60">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:Y65">
     <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="86">
-      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:Y61">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:Y66">
     <cfRule type="containsText" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="87"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:Y61">
+  <conditionalFormatting sqref="A66:Y66">
     <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
-      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:Y61">
+      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:Y66">
     <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
-      <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:Y61">
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:Y66">
     <cfRule type="cellIs" priority="92" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
+  <conditionalFormatting sqref="I66">
     <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
-      <formula>AND($I61 = "", $A61 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
+      <formula>AND($I66 = "", $A66 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
     <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
-      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $C61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
     <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
-      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $B61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
     <cfRule type="cellIs" priority="96" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
+  <conditionalFormatting sqref="H66">
     <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
-      <formula>AND(NOT($G61 = ""), $H61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:Y61">
+      <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:Y66">
     <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="96">
-      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:Y61">
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:Y66">
     <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="97">
-      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
     <cfRule type="containsText" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="98"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+  <conditionalFormatting sqref="A67">
     <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="99">
-      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
     <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="100">
-      <formula>AND($A62="end group", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
     <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="101">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+  <conditionalFormatting sqref="A67">
     <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+  <conditionalFormatting sqref="A67">
     <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="103">
-      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
     <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="104">
-      <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
+      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
     <cfRule type="containsText" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="105"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
+  <conditionalFormatting sqref="E64">
     <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="106">
-      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
     <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="107">
-      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
     <cfRule type="cellIs" priority="110" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="108">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
+  <conditionalFormatting sqref="E64">
     <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="109">
-      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
     <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="110">
-      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
     <cfRule type="containsText" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="111"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
+  <conditionalFormatting sqref="E64">
     <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="112">
-      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
     <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="113">
-      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
     <cfRule type="cellIs" priority="116" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="114">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
+  <conditionalFormatting sqref="E64">
     <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="115">
-      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
     <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="116">
-      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
     <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="117">
-      <formula>AND($I59 = "", $A59 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
+      <formula>AND($I64 = "", $A64 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
     <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="118">
-      <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $C59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
     <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
-      <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $B59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
     <cfRule type="cellIs" priority="122" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="120">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H64">
     <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="121">
-      <formula>AND(NOT($G59 = ""), $H59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
+      <formula>AND(NOT($G64 = ""), $H64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
     <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="122">
-      <formula>COUNTIF($B$2:$B$1032,B61)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D62" type="list">
+      <formula>COUNTIF($B$2:$B$1037,B66)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2 D8:D67" type="list">
+      <formula1>"yes,no"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D3:D7 D68:D70" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4661,35 +4925,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.3979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="19.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -4697,13 +4961,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -4735,13 +4999,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -4749,13 +5013,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -4771,13 +5035,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -4785,13 +5049,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -4815,13 +5079,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -4829,13 +5093,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -4871,47 +5135,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="19.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="19.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>151</v>
+      <c r="A1" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="11" t="n">
+        <v>159</v>
+      </c>
+      <c r="C2" s="17" t="n">
         <f aca="true">NOW()</f>
-        <v>44064.9559515134</v>
+        <v>44067.4430463549</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F2" s="8"/>
     </row>

--- a/config/default/forms/app/hts_screening.xlsx
+++ b/config/default/forms/app/hts_screening.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="170">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -219,172 +219,196 @@
     <t xml:space="preserve">select_one population_type</t>
   </si>
   <si>
-    <t xml:space="preserve">_160112_poulationType_99DCT</t>
+    <t xml:space="preserve">_160112_populationType_99DCT</t>
   </si>
   <si>
     <t xml:space="preserve">Population type</t>
   </si>
   <si>
+    <t xml:space="preserve">select_one department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_159936_department_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one yes_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_164401_everTestedByProvider_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested for HIV before?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one test_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_159427_testResults_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${_164401_everTestedByProvider_99DCT},'_1065_yes_99DCT')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_164400_dateTested_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date tested can not be in the future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_since_last_test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difference-in-months( ${_164400_dateTested_99DCT} , today() )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_of_days_note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Months since last tested: ${duration_since_last_test}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_162699_eligibleForTesting_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if(${_164401_everTestedByProvider_99DCT}='_1065_yes_99DCT' and ${duration_since_last_test} &gt; 12 and ${_159427_testResults_99DCT} != '_703_positive_99DCT', '_1065_yes_99DCT', if(${_164401_everTestedByProvider_99DCT}='_1066_no_99DCT', '_1065_yes_99DCT', '_1066_no_99DCT'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screening_outcome_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if(${_164401_everTestedByProvider_99DCT}='_1065_yes_99DCT' and ${duration_since_last_test} &gt; 12 and ${_159427_testResults_99DCT} != '_703_positive_99DCT', 'Eligible', if(${_164401_everTestedByProvider_99DCT}='_1066_no_99DCT', 'Eligible', 'Not eligible'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outcome_header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style='color:brown;'&gt;Screening outcome: ${screening_outcome_text} &lt;i class="fa fa-warning"&gt;&lt;/i&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_163042_remarks_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remark(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field-list summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Be sure you submit to complete this action._</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_household_details_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client details&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_household_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;${place_name} ${head}&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_assessment_findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment findings&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_drinking_water_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**_Population Type_**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(../../observation/_160112_populationType_99DCT, '_1065_HP_99DCT')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">np</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(../../observation/_160112_populationType_99DCT, '_1066_NP_99DCT')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**_Department_**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(../../observation/_159936_department_99DCT, '_160542_OPD_99DCT')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(../../observation/_159936_department_99DCT, '_5485_IPD_99DCT')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiv_tested_before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**_Tested for HIV before_**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(../../observation/_164401_everTestedByProvider_99DCT, '_1065_yes_99DCT')</t>
+  </si>
+  <si>
     <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_159936_department_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one yes_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_164401_everTestedByProvider_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tested for HIV before?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one test_result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_159427_testResults_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${_164401_everTestedByProvider_99DCT},'_1065_yes_99DCT')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_164400_dateTested_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date tested can not be in the future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_162699_eligibleForTesting_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client eligible for testing?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_163042_remarks_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remark(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group_review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Be sure you submit to complete this action._</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_household_details_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client details&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 yellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_household_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;${place_name} ${head}&lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_assessment_findings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assessment findings&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_drinking_water_source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**_Population Type_**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../observation/_160112_poulationType_99DCT, '_1065_HP_99DCT')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">np</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../observation/_164930_populationType_99DCT, '_1066_HP_99DCT')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**_Department_**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../observation/_159936_department_99DCT, '_160542_OPD_99DCT')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ipd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../observation/_159936_department_99DCT, '_5485_IPD_99DCT')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiv_tested_before</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**_Tested for HIV before_**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../observation/_164401_everTestedByProvider_99DCT, '_1065_yes_99DCT')</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
@@ -752,7 +776,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="128">
     <dxf>
       <font>
         <strike val="1"/>
@@ -1187,16 +1211,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFB7E1CD"/>
@@ -1930,6 +1944,84 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2002,30 +2094,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y70"/>
+  <dimension ref="A1:Y65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C34" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="topRight" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.5867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.4591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.90816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.5969387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.219387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="53.6377551020408"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="69.6581632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="102.413265306122"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.530612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.8469387755102"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="41.1275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="19.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.25"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.3775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.9795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.1989795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="57.5051020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="74.7857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="109.882653061224"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.969387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="44.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="20.969387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3152,7 +3244,7 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
         <v>64</v>
       </c>
@@ -3163,7 +3255,7 @@
         <v>66</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3186,17 +3278,19 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -3219,18 +3313,18 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="D38" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3253,21 +3347,21 @@
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -3295,23 +3389,23 @@
         <v>57</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -3331,22 +3425,26 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="I41" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -3364,21 +3462,23 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
+    <row r="42" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="F42" s="5"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -3397,18 +3497,24 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+    <row r="43" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="I43" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -3426,24 +3532,24 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>13</v>
+    <row r="44" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="I44" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -3461,18 +3567,18 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
+    <row r="45" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -3494,14 +3600,14 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>89</v>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D46" s="5"/>
@@ -3509,8 +3615,8 @@
       <c r="F46" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -3529,16 +3635,12 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>96</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -3564,18 +3666,18 @@
     </row>
     <row r="48" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -3597,126 +3699,122 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+    </row>
+    <row r="51" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
+      <c r="C51" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+    </row>
+    <row r="52" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-    </row>
-    <row r="51" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="F52" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -3737,23 +3835,19 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>112</v>
+        <v>82</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -3776,20 +3870,20 @@
     </row>
     <row r="54" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>114</v>
+        <v>82</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -3811,92 +3905,92 @@
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
     </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="5" t="s">
+    <row r="55" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+    </row>
+    <row r="57" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-    </row>
-    <row r="56" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-    </row>
-    <row r="57" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -3918,56 +4012,56 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
     </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="5" t="s">
+    <row r="58" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="F58" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-    </row>
-    <row r="59" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="D59" s="5"/>
-      <c r="E59" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -3989,156 +4083,166 @@
       <c r="Y59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B60" s="5" t="s">
+      <c r="A60" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+    </row>
+    <row r="61" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C61" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="4" t="s">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="F61" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-    </row>
-    <row r="62" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B63" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4" t="s">
+      <c r="F63" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+    </row>
+    <row r="64" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+      <c r="C64" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="D64" s="5"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="5"/>
+      <c r="E64" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -4160,12 +4264,18 @@
       <c r="Y64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
+      <c r="A65" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="D65" s="5"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -4186,128 +4296,257 @@
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+    </row>
+    <row r="67" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="s">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" s="9" t="s">
+      <c r="B72" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="9" t="s">
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="11" t="s">
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" s="4" t="s">
+      <c r="B73" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="12"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="s">
+      <c r="D73" s="12"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-    </row>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="B1">
     <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -4376,37 +4615,37 @@
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
+  <conditionalFormatting sqref="A47">
     <cfRule type="containsText" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
+  <conditionalFormatting sqref="A47">
     <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
-      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
+      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
     <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
+      <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
     <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
+  <conditionalFormatting sqref="A47">
     <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
+  <conditionalFormatting sqref="A47">
     <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
-      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
+      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
     <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
-      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E39">
@@ -4453,449 +4692,607 @@
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:Y40">
+  <conditionalFormatting sqref="A40:Y41">
     <cfRule type="containsText" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:Y40">
+  <conditionalFormatting sqref="A40:Y41">
     <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
       <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:Y40">
+  <conditionalFormatting sqref="A40:Y41">
     <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
       <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:Y40">
+  <conditionalFormatting sqref="A40:Y41">
     <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
+  <conditionalFormatting sqref="A40:A41">
     <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:Y40">
+  <conditionalFormatting sqref="A40:Y41">
     <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:Y40">
+  <conditionalFormatting sqref="A40:Y41">
     <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
       <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
+  <conditionalFormatting sqref="I40:I41">
     <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
       <formula>AND($I40 = "", $A40 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
+  <conditionalFormatting sqref="C40:C41">
     <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
       <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $C40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
+  <conditionalFormatting sqref="B40:B41">
     <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
       <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $B40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
+  <conditionalFormatting sqref="H40:H41">
     <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
       <formula>AND(NOT($G40 = ""), $H40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="cellIs" priority="45" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
-      <formula>"hidden"</formula>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1020, "begin group") = COUNTIF($A$1:$A$1020, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1016, "begin group") = COUNTIF($A$1:$A$1016, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1007, "begin group") = COUNTIF($A$1:$A$1016, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="containsText" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:Y42">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1011, "begin group") = COUNTIF($A$1:$A$1020, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
+    <cfRule type="containsText" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
+    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
+      <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
     <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
-      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
-      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="cellIs" priority="51" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
+    <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
+  <conditionalFormatting sqref="I46">
+    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+      <formula>AND($I46 = "", $A46 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
     <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>AND($I42 = "", $A42 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $C46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
     <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
-      <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $C42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
-      <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $B42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
+      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $B46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
+      <formula>COUNTIF($B$2:$B$1049,B46)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
     <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
-      <formula>COUNTIF($B$2:$B$1045,B42)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+      <formula>AND(NOT($G46 = ""), $H46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
     <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
-      <formula>AND(NOT($G42 = ""), $H42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:Y42">
+      <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
     <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
-      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
-      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E58">
-    <cfRule type="containsText" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E58">
-    <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
+      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="containsText" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E58">
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E62">
     <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
-      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E58">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E62">
     <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
-      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E58">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E62">
     <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
-      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E58">
-    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
-      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y60">
-    <cfRule type="containsText" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y60">
+  <conditionalFormatting sqref="A64:Y64">
+    <cfRule type="containsText" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:Y64">
+    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:Y64">
     <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y60">
-    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
-      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y60">
-    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:Y64">
+    <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
+  <conditionalFormatting sqref="I64">
+    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+      <formula>AND($I64 = "", $A64 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
     <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
-      <formula>AND($I60 = "", $A60 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
     <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
+  <conditionalFormatting sqref="H64">
+    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
+      <formula>AND(NOT($G64 = ""), $H64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:Y64">
     <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
-      <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y60">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:Y64">
     <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y60">
-    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="75">
-      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:Y65">
-    <cfRule type="containsText" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:Y65">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:Y69">
+    <cfRule type="containsText" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:Y69">
+    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:Y69">
     <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
-      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:Y65">
-    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
-      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:Y65">
-    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:Y69">
+    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
+  <conditionalFormatting sqref="I69">
+    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
+      <formula>AND($I69 = "", $A69 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
     <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80">
-      <formula>AND($I65 = "", $A65 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
+      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $C69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
     <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
-      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
-      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $B65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="83">
+      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $B69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
+  <conditionalFormatting sqref="H69">
+    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="83">
+      <formula>AND(NOT($G69 = ""), $H69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:Y69">
     <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="84">
-      <formula>AND(NOT($G65 = ""), $H65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:Y65">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:Y69">
     <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
-      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:Y65">
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="86">
-      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:Y66">
-    <cfRule type="containsText" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:Y66">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:Y70">
+    <cfRule type="containsText" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:Y70">
+    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
+      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:Y70">
     <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:Y66">
-    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:Y66">
-    <cfRule type="cellIs" priority="92" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
+      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:Y70">
+    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
+  <conditionalFormatting sqref="I70">
+    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
+      <formula>AND($I70 = "", $A70 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
     <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
-      <formula>AND($I66 = "", $A66 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
+      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $C70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
     <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" priority="96" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94">
+      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $B70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
+  <conditionalFormatting sqref="H70">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94">
+      <formula>AND(NOT($G70 = ""), $H70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:Y70">
     <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
-      <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:Y66">
+      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:Y70">
     <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="96">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:Y66">
-    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="97">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="containsText" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
+      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="containsText" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="98">
+      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
     <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="99">
-      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="100">
-      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
+      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="cellIs" priority="102" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="100">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
     <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="101">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102">
+      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="103">
+      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="containsText" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="105">
+      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="106">
+      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" priority="109" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="107">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102">
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="108">
+      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="109">
+      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="containsText" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="111">
+      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="112">
+      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" priority="115" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="113">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="114">
+      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="115">
+      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68">
+    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="116">
+      <formula>AND($I68 = "", $A68 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="117">
+      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="118">
+      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="cellIs" priority="121" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="103">
-      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="104">
-      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="106">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="107">
-      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" priority="110" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="108">
+  <conditionalFormatting sqref="H68">
+    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="120">
+      <formula>AND(NOT($G68 = ""), $H68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="121">
+      <formula>COUNTIF($B$2:$B$1041,B70)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y43">
+    <cfRule type="containsText" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y43">
+    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y43">
+    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y43">
+    <cfRule type="cellIs" priority="127" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="109">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="110">
-      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="111"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="112">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="113">
-      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" priority="116" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="114">
+  <conditionalFormatting sqref="A43">
+    <cfRule type="cellIs" priority="128" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y43">
+    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y43">
+    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>AND($I43 = "", $A43 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+      <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:Y44">
+    <cfRule type="containsText" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:Y44">
+    <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:Y44">
+    <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:Y44">
+    <cfRule type="cellIs" priority="138" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="115">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="116">
-      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="117">
-      <formula>AND($I64 = "", $A64 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="118">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="cellIs" priority="122" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="120">
+  <conditionalFormatting sqref="A44">
+    <cfRule type="cellIs" priority="139" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="121">
-      <formula>AND(NOT($G64 = ""), $H64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="122">
-      <formula>COUNTIF($B$2:$B$1037,B66)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2 D8:D67" type="list">
+  <conditionalFormatting sqref="A44:Y44">
+    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:Y44">
+    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="expression" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>AND($I44 = "", $A44 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $C44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+      <formula>AND(NOT($G44 = ""), $H44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
+      <formula>AND($I45 = "", $A45 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
+      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $C45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
+      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $B45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="cellIs" priority="149" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="expression" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
+      <formula>AND(NOT($G45 = ""), $H45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="containsText" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="123">
+      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="124">
+      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" priority="154" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="125">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="126">
+      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
+      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2 D8:D44 D46:D71" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D3:D7 D68:D70" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D3:D7 D72:D74" type="list">
+      <formula1>"yes,no"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D45" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4920,20 +5317,20 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="19.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.8979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="20.969387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
@@ -4947,13 +5344,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -4961,13 +5358,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -4999,13 +5396,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -5013,13 +5410,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -5035,13 +5432,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -5049,13 +5446,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -5079,13 +5476,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -5093,13 +5490,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -5135,47 +5532,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="19.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="19.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="20.969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="20.969387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C2" s="17" t="n">
         <f aca="true">NOW()</f>
-        <v>44067.4430463549</v>
+        <v>44068.6109995194</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F2" s="8"/>
     </row>

--- a/config/default/forms/app/hts_screening.xlsx
+++ b/config/default/forms/app/hts_screening.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="168">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -219,25 +219,22 @@
     <t xml:space="preserve">Encounter date can not be in the future</t>
   </si>
   <si>
+    <t xml:space="preserve">select_one service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hts_service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required service</t>
+  </si>
+  <si>
     <t xml:space="preserve">observation</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one population_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_160112_populationType_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_159936_department_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department</t>
+    <t xml:space="preserve">HTS eligibility screening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${hts_service},’newOrRetest’)</t>
   </si>
   <si>
     <t xml:space="preserve">select_one yes_no</t>
@@ -294,13 +291,16 @@
     <t xml:space="preserve">screening_outcome_text</t>
   </si>
   <si>
-    <t xml:space="preserve">if(${_164401_everTestedByProvider_99DCT}='_1065_yes_99DCT' and ${duration_since_last_test} &gt; 12 and ${_159427_testResults_99DCT} != '_703_positive_99DCT', 'Eligible', if(${_164401_everTestedByProvider_99DCT}='_1066_no_99DCT', 'Eligible', 'Not eligible'))</t>
+    <t xml:space="preserve">if(${_164401_everTestedByProvider_99DCT}='_1065_yes_99DCT' and ${duration_since_last_test} &gt; 12 and ${_159427_testResults_99DCT} != '_703_positive_99DCT', 'Eligible', if(${_164401_everTestedByProvider_99DCT}='_1066_no_99DCT', 'Eligible', if(${_164401_everTestedByProvider_99DCT}='_1065_yes_99DCT' and ${_159427_testResults_99DCT} = '_703_positive_99DCT','Not eligible',if(${_164401_everTestedByProvider_99DCT}='_1065_yes_99DCT' and ${duration_since_last_test} &lt;= 12 and ${_159427_testResults_99DCT} = '_664_negative_99DCT', 'Not eligible',''))))</t>
   </si>
   <si>
     <t xml:space="preserve">outcome_header</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;span style='color:brown;'&gt;Screening outcome: ${screening_outcome_text} &lt;i class="fa fa-warning"&gt;&lt;/i&gt;&lt;/span&gt;</t>
+    <t xml:space="preserve">&lt;span style='color:brown;'&gt; &lt;i class="fa fa-warning"&gt; HTS screening status: ${screening_outcome_text}&lt;/i&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${_164401_everTestedByProvider_99DCT},'_1065_yes_99DCT') or selected(${_164401_everTestedByProvider_99DCT},'_1066_no_99DCT')</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
@@ -351,156 +351,129 @@
     <t xml:space="preserve">Assessment findings&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">n_drinking_water_source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**_Population Type_**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hp</t>
+    <t xml:space="preserve">hiv_tested_before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**_Tested for HIV before_**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(../../observation/_164401_everTestedByProvider_99DCT, '_1065_yes_99DCT')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(../../observation/_164401_everTestedByProvider_99DCT, '_1066_no_99DCT')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**_Test result_**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results_positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(../../observation/_159427_testResults_99DCT, '_703_positive_99DCT')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results_negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(../../observation/_159427_testResults_99DCT, '_664_negative_99DCT')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testeligible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**_HTS eligibility_**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eligible_yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eligible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(../../observation/_162699_eligibleForTesting_99DCT, '_1065_yes_99DCT')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eligible_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not eligible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(../../observation/_162699_eligibleForTesting_99DCT, '_1066_no_99DCT')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audit_trail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">created_by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../inputs/user/name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_1065_yes_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_1066_no_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_1065_HP_99DCT</t>
   </si>
   <si>
     <t xml:space="preserve">HP</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(../../observation/_160112_populationType_99DCT, '_1065_HP_99DCT')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">np</t>
+    <t xml:space="preserve">_1066_NP_99DCT</t>
   </si>
   <si>
     <t xml:space="preserve">NP</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(../../observation/_160112_populationType_99DCT, '_1066_NP_99DCT')</t>
-  </si>
-  <si>
     <t xml:space="preserve">department</t>
   </si>
   <si>
-    <t xml:space="preserve">**_Department_**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opd</t>
+    <t xml:space="preserve">_160542_OPD_99DCT</t>
   </si>
   <si>
     <t xml:space="preserve">OPD</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(../../observation/_159936_department_99DCT, '_160542_OPD_99DCT')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ipd</t>
+    <t xml:space="preserve">_5485_IPD_99DCT</t>
   </si>
   <si>
     <t xml:space="preserve">IPD</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(../../observation/_159936_department_99DCT, '_5485_IPD_99DCT')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiv_tested_before</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**_Tested for HIV before_**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../observation/_164401_everTestedByProvider_99DCT, '_1065_yes_99DCT')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../observation/_164401_everTestedByProvider_99DCT, '_1066_no_99DCT')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**_Test result_**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results_positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../observation/_159427_testResults_99DCT, '_703_positive_99DCT')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results_negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../observation/_159427_testResults_99DCT, '_664_negative_99DCT')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testeligible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**_Client eligible for testing_**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eligible_yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../observation/_162699_eligibleForTesting_99DCT, '_1065_yes_99DCT')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eligible_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../observation/_162699_eligibleForTesting_99DCT, '_1066_no_99DCT')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">audit_trail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../inputs/user/name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_1065_yes_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_1066_no_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">population_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_1065_HP_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_1066_NP_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_160542_OPD_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_5485_IPD_99DCT</t>
-  </si>
-  <si>
     <t xml:space="preserve">test_result</t>
   </si>
   <si>
@@ -510,6 +483,21 @@
     <t xml:space="preserve">_664_negative_99DCT</t>
   </si>
   <si>
+    <t xml:space="preserve">service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newOrRetest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New/Retest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirmPositiveResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-test to confirm +ve results</t>
+  </si>
+  <si>
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
@@ -528,7 +516,7 @@
     <t xml:space="preserve">instance_name</t>
   </si>
   <si>
-    <t xml:space="preserve">HTS Screening Form</t>
+    <t xml:space="preserve">HTS screening form</t>
   </si>
   <si>
     <t xml:space="preserve">hts_screening_form</t>
@@ -715,7 +703,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -754,10 +742,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2127,30 +2111,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL75"/>
+  <dimension ref="A1:AL65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C49" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
+      <selection pane="topRight" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.9081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.9948979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="59.5765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="77.484693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="113.841836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.6887755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.3367346938776"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="36.3571428571429"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="45.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="21.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.7959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="70.9132653061225"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="92.515306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="135.801020408163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.5561224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="45.5357142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="54.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="25.5561224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,21 +3272,21 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -3325,24 +3309,27 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="C37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -3359,13 +3346,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>62</v>
@@ -3377,7 +3364,6 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
@@ -3392,26 +3378,29 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -3426,25 +3415,29 @@
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="G40" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -3463,30 +3456,26 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>62</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -3505,25 +3494,23 @@
       <c r="Y41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>46</v>
+      <c r="A42" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
@@ -3542,23 +3529,23 @@
       <c r="Y42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>84</v>
+      <c r="A43" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D43" s="8"/>
-      <c r="E43" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="I43" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
@@ -3576,12 +3563,12 @@
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="67" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>19</v>
@@ -3592,7 +3579,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -3611,24 +3598,24 @@
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="E45" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
@@ -3646,21 +3633,23 @@
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D46" s="8"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -3679,23 +3668,17 @@
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>95</v>
-      </c>
+    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -3714,15 +3697,23 @@
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="27.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
+      <c r="E48" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -3745,19 +3736,17 @@
     </row>
     <row r="49" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -3780,17 +3769,19 @@
     </row>
     <row r="50" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -3811,21 +3802,19 @@
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -3846,19 +3835,21 @@
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
+      <c r="F52" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -3879,21 +3870,19 @@
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>84</v>
+    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -3914,19 +3903,23 @@
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
-        <v>84</v>
+    <row r="54" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>110</v>
+        <v>62</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -3948,21 +3941,21 @@
       <c r="Y54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>112</v>
+      <c r="A55" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -3984,56 +3977,56 @@
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
     </row>
-    <row r="56" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4" t="s">
+    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="s">
-        <v>84</v>
+      <c r="C56" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+    </row>
+    <row r="57" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
+      <c r="E57" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -4056,127 +4049,127 @@
     </row>
     <row r="58" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="8"/>
       <c r="E58" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-    </row>
-    <row r="59" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+    </row>
+    <row r="60" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="8"/>
-      <c r="Y60" s="8"/>
+      <c r="C60" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>128</v>
+      <c r="A61" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -4198,56 +4191,40 @@
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
     </row>
-    <row r="62" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
+    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>134</v>
-      </c>
+      <c r="A63" s="4"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="8"/>
+      <c r="F63" s="4"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
@@ -4268,23 +4245,13 @@
       <c r="X63" s="8"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="64" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>136</v>
-      </c>
+    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
       <c r="D64" s="8"/>
-      <c r="E64" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
@@ -4305,23 +4272,15 @@
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
     </row>
-    <row r="65" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>139</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
@@ -4342,289 +4301,82 @@
       <c r="X65" s="8"/>
       <c r="Y65" s="8"/>
     </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
-      <c r="W66" s="8"/>
-      <c r="X66" s="8"/>
-      <c r="Y66" s="8"/>
-    </row>
-    <row r="67" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
-      <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
-    </row>
-    <row r="68" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="8"/>
-      <c r="X69" s="8"/>
-      <c r="Y69" s="8"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="8"/>
-      <c r="W70" s="8"/>
-      <c r="X70" s="8"/>
-      <c r="Y70" s="8"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="8"/>
-      <c r="X71" s="8"/>
-      <c r="Y71" s="8"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
-      <c r="V72" s="8"/>
-      <c r="W72" s="8"/>
-      <c r="X72" s="8"/>
-      <c r="Y72" s="8"/>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="15"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-    </row>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+    </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="B1">
     <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -4680,697 +4432,697 @@
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:Y40">
+  <conditionalFormatting sqref="A39:Y39">
     <cfRule type="containsText" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:Y40">
+  <conditionalFormatting sqref="A39:Y39">
     <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
+  <conditionalFormatting sqref="A39">
     <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+  <conditionalFormatting sqref="A47">
     <cfRule type="containsText" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+  <conditionalFormatting sqref="A47">
     <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
-      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
     <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+      <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
     <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+  <conditionalFormatting sqref="A47">
     <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+  <conditionalFormatting sqref="A47">
     <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
-      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
     <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
-      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E40">
+      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E39">
     <cfRule type="containsText" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E40">
+  <conditionalFormatting sqref="E38:E39">
     <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:A40">
+  <conditionalFormatting sqref="A38:A39">
     <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E40">
+  <conditionalFormatting sqref="E38:E39">
     <cfRule type="containsText" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E38">
     <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
-      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $I39 = "", $M39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E40">
+      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $I38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E39">
     <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E38">
     <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $I39 = "", $M39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
+      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $I38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:Y36">
     <cfRule type="containsText" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
+  <conditionalFormatting sqref="A35:Y36">
     <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A35:A36">
     <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y42">
+  <conditionalFormatting sqref="A40:Y41">
     <cfRule type="containsText" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y42">
+  <conditionalFormatting sqref="A40:Y41">
     <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
-      <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y42">
+      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:Y41">
     <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
-      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y42">
+      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:Y41">
     <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:A42">
+  <conditionalFormatting sqref="A40:A41">
     <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y42">
+  <conditionalFormatting sqref="A40:Y41">
     <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y42">
+      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:Y41">
     <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
-      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I42">
+      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:I41">
     <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>AND($I41 = "", $A41 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41:C42">
+      <formula>AND($I40 = "", $A40 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
     <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
-      <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $C41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B42">
+      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $C40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:B41">
     <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $B41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H42">
+      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $B40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:H41">
     <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
-      <formula>AND(NOT($G41 = ""), $H41 = "")</formula>
+      <formula>AND(NOT($G40 = ""), $H40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1021, "begin group") = COUNTIF($A$1:$A$1021, "end group"))</formula>
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1014, "begin group") = COUNTIF($A$1:$A$1014, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1012, "begin group") = COUNTIF($A$1:$A$1021, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:Y47">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1005, "begin group") = COUNTIF($A$1:$A$1014, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
     <cfRule type="containsText" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:Y47">
+  <conditionalFormatting sqref="A46:Y46">
     <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
-      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:Y47">
+      <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
     <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
-      <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:Y47">
+      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
     <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
+  <conditionalFormatting sqref="I46">
     <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
-      <formula>AND($I47 = "", $A47 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
+      <formula>AND($I46 = "", $A46 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
     <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $C47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
+      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $C46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
     <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
-      <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $B47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $B46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
     <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
+  <conditionalFormatting sqref="B46">
     <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
-      <formula>COUNTIF($B$2:$B$1050,B47)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+      <formula>COUNTIF($B$2:$B$1043,B46)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
     <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
-      <formula>AND(NOT($G47 = ""), $H47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:Y47">
+      <formula>AND(NOT($G46 = ""), $H46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
     <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
-      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:Y47">
+      <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
     <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
-      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E63">
+      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:E56">
     <cfRule type="containsText" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E63">
+  <conditionalFormatting sqref="E54:E56">
     <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E63">
+  <conditionalFormatting sqref="E54:E56">
     <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
-      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E63">
+      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:E56">
     <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
-      <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E63">
+      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:E56">
     <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
-      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E63">
+      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:E56">
     <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
-      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
+      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
     <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:Y65">
+  <conditionalFormatting sqref="A58:Y58">
     <cfRule type="containsText" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:Y65">
+  <conditionalFormatting sqref="A58:Y58">
     <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
-      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:Y65">
+      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:Y58">
     <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
-      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:Y65">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:Y58">
     <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
+  <conditionalFormatting sqref="I58">
     <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
-      <formula>AND($I65 = "", $A65 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
+      <formula>AND($I58 = "", $A58 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
     <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
-      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
+      <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $C58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
     <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
-      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $B65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
+      <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $B58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
     <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
+  <conditionalFormatting sqref="H58">
     <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
-      <formula>AND(NOT($G65 = ""), $H65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:Y65">
+      <formula>AND(NOT($G58 = ""), $H58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:Y58">
     <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
-      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:Y65">
+      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:Y58">
     <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
-      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Y70">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:Y63">
     <cfRule type="containsText" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Y70">
+  <conditionalFormatting sqref="A63:Y63">
     <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Y70">
+      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:Y63">
     <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
-      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Y70">
+      <formula>AND($A63="end group", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:Y63">
     <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
+  <conditionalFormatting sqref="I63">
     <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
-      <formula>AND($I70 = "", $A70 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
+      <formula>AND($I63 = "", $A63 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
     <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80">
-      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $C70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $C63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
     <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
-      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $B70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $B63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
     <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
+  <conditionalFormatting sqref="H63">
     <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="83">
-      <formula>AND(NOT($G70 = ""), $H70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Y70">
+      <formula>AND(NOT($G63 = ""), $H63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:Y63">
     <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="84">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Y70">
+      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:Y63">
     <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
-      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:Y71">
+      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:Y64">
     <cfRule type="containsText" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:Y71">
+  <conditionalFormatting sqref="A64:Y64">
     <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
-      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:Y71">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:Y64">
     <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
-      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:Y71">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:Y64">
     <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
+  <conditionalFormatting sqref="I64">
     <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
-      <formula>AND($I71 = "", $A71 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
+      <formula>AND($I64 = "", $A64 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
     <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
-      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
     <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
-      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $B71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
     <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
+  <conditionalFormatting sqref="H64">
     <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94">
-      <formula>AND(NOT($G71 = ""), $H71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:Y71">
+      <formula>AND(NOT($G64 = ""), $H64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:Y64">
     <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
-      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:Y71">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:Y64">
     <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="96">
-      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
     <cfRule type="containsText" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
+  <conditionalFormatting sqref="A65">
     <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="98">
-      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
     <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="99">
-      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
     <cfRule type="cellIs" priority="102" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="100">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
+  <conditionalFormatting sqref="A65">
     <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="101">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
+  <conditionalFormatting sqref="A65">
     <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102">
-      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
     <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="103">
-      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
     <cfRule type="containsText" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="E62">
     <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="105">
-      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
     <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="106">
-      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+      <formula>AND($A62="end group", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
     <cfRule type="cellIs" priority="109" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="107">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="E62">
     <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="108">
-      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
     <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="109">
-      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+      <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
     <cfRule type="containsText" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="110"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="E62">
     <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="111">
-      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
     <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="112">
-      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+      <formula>AND($A62="end group", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
     <cfRule type="cellIs" priority="115" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="113">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="E62">
     <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="114">
-      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
     <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="115">
-      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
+      <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
     <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="116">
-      <formula>AND($I69 = "", $A69 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
+      <formula>AND($I62 = "", $A62 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
     <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="117">
-      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $C69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+      <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $C62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
     <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="118">
-      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $B69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
+      <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $B62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
     <cfRule type="cellIs" priority="121" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
+  <conditionalFormatting sqref="H62">
     <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="120">
-      <formula>AND(NOT($G69 = ""), $H69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
+      <formula>AND(NOT($G62 = ""), $H62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
     <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="121">
-      <formula>COUNTIF($B$2:$B$1042,B71)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Y44">
+      <formula>COUNTIF($B$2:$B$1035,B64)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y43">
     <cfRule type="containsText" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Y44">
+  <conditionalFormatting sqref="A43:Y43">
     <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
-      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Y44">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y43">
     <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
-      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Y44">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y43">
     <cfRule type="cellIs" priority="127" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
+  <conditionalFormatting sqref="A43">
     <cfRule type="cellIs" priority="128" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y43">
+    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y43">
+    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>AND($I43 = "", $A43 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+      <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A44:Y44">
-    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
-    </cfRule>
+    <cfRule type="containsText" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:Y44">
-    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
-      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>AND($I44 = "", $A44 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
-      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $C44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
-      <formula>AND(NOT($G44 = ""), $H44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
-    <cfRule type="containsText" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
     <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
-      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
+      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:Y44">
     <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
-      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
+      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:Y44">
     <cfRule type="cellIs" priority="138" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
+  <conditionalFormatting sqref="A44">
     <cfRule type="cellIs" priority="139" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
+  <conditionalFormatting sqref="A44:Y44">
     <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
+      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:Y44">
     <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
-      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="expression" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>AND($I44 = "", $A44 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $C44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+      <formula>AND(NOT($G44 = ""), $H44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="expression" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
       <formula>AND($I45 = "", $A45 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
       <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $C45 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
       <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $B45 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
-      <formula>AND(NOT($G45 = ""), $H45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
-      <formula>AND($I46 = "", $A46 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
-      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $C46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
-      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $B46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
+  <conditionalFormatting sqref="A45">
     <cfRule type="cellIs" priority="149" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+  <conditionalFormatting sqref="H45">
     <cfRule type="expression" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
-      <formula>AND(NOT($G46 = ""), $H46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+      <formula>AND(NOT($G45 = ""), $H45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
     <cfRule type="containsText" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="122"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+  <conditionalFormatting sqref="E45">
     <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="123">
-      <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
     <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="124">
-      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
     <cfRule type="cellIs" priority="154" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="125">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+  <conditionalFormatting sqref="E45">
     <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="126">
-      <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
     <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
-      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2 D8:D12 D14:D45 D47:D72" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2 D8:D12 D14:D44 D46:D65" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D3:D7 D73:D75" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D3:D7 D66:D68" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D46" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D45" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5395,190 +5147,212 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.515306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.4744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="21.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.6071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="71.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="25.5561224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C14" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="C15" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="B18" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C18" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="11" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="C19" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
     </row>
     <row r="1048504" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048505" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5610,49 +5384,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="21.6887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="21.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="25.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="25.5561224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="18" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="B2" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="C2" s="19" t="n">
+        <f aca="true">NOW()</f>
+        <v>44084.703221705</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="E2" s="10" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="20" t="n">
-        <f aca="true">NOW()</f>
-        <v>44070.4654421184</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/config/default/forms/app/hts_screening.xlsx
+++ b/config/default/forms/app/hts_screening.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="170">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -496,6 +496,12 @@
   </si>
   <si>
     <t xml:space="preserve">Re-test to confirm +ve results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linkage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linkage</t>
   </si>
   <si>
     <t xml:space="preserve">form_title</t>
@@ -2116,25 +2122,25 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C49" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
-      <selection pane="topRight" activeCell="C53" activeCellId="0" sqref="C53"/>
+      <selection pane="topRight" activeCell="A70" activeCellId="0" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.7959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="64.2551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="70.9132653061225"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="92.515306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="135.801020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.5561224489796"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="45.5357142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="54.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="25.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.7755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.5051020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="66.5969387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.9897959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="73.4336734693878"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="95.8418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="140.75"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="47.1581632653061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="44.7295918367347"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="56.3367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="26.4591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5147,15 +5153,15 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="71.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="25.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.6785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="26.4591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5352,6 +5358,17 @@
       </c>
       <c r="C19" s="0" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="1048504" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5384,47 +5401,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="25.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="25.5561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="26.4591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C2" s="19" t="n">
         <f aca="true">NOW()</f>
-        <v>44084.703221705</v>
+        <v>44105.5141512753</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F2" s="10"/>
     </row>

--- a/config/default/forms/app/hts_screening.xlsx
+++ b/config/default/forms/app/hts_screening.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="186">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -264,19 +264,34 @@
     <t xml:space="preserve">Do you remember date when you were last tested?</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${_164401_everTestedByProvider_99DCT},'_1065_yes_99DCT') </t>
+    <t xml:space="preserve">selected(${_159427_testResults_99DCT},'_664_negative_99DCT')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exact_test_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${_164401_everTestedByProvider_99DCT},'_1065_yes_99DCT') and selected(${patient_Test_Date_Known},'_1065_yes_99DCT')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date tested can not be in the future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estimated_test_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated date tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${_164401_everTestedByProvider_99DCT},'_1065_yes_99DCT') and selected(${patient_Test_Date_Known},'_1066_no_99DCT')</t>
   </si>
   <si>
     <t xml:space="preserve">_164400_dateTested_99DCT</t>
   </si>
   <si>
-    <t xml:space="preserve">Date tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${_164401_everTestedByProvider_99DCT},'_1065_yes_99DCT') and selected(${patient_Test_Date_Known},'_1065_yes_99DCT')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date tested can not be in the future</t>
+    <t xml:space="preserve">if(${exact_test_date}!=’’,${exact_test_date},${estimated_test_date})</t>
   </si>
   <si>
     <t xml:space="preserve">duration_since_last_test</t>
@@ -285,57 +300,21 @@
     <t xml:space="preserve">difference-in-months( ${_164400_dateTested_99DCT} , today() )</t>
   </si>
   <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient_ageYears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Months since last tested:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${patient_Test_Date_Known},'_1066_no_99DCT') </t>
-  </si>
-  <si>
-    <t xml:space="preserve">. &gt;= 0 and . &lt;= 110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age must be between 0 and 110</t>
+    <t xml:space="preserve">_162699_eligibleForTesting_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if(${_164401_everTestedByProvider_99DCT}='_1065_yes_99DCT' and ${duration_since_last_test} &gt; 12 and ${_159427_testResults_99DCT} != '_703_positive_99DCT', '_1065_yes_99DCT', if(${_164401_everTestedByProvider_99DCT}='_1066_no_99DCT', '_1065_yes_99DCT', '_1066_no_99DCT'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screening_outcome_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if(${_164401_everTestedByProvider_99DCT}='_1065_yes_99DCT' and ${duration_since_last_test} &gt; 12 and ${_159427_testResults_99DCT} != '_703_positive_99DCT', 'Eligible', if(${_164401_everTestedByProvider_99DCT}='_1066_no_99DCT', 'Eligible', if(${_164401_everTestedByProvider_99DCT}='_1065_yes_99DCT' and ${_159427_testResults_99DCT} = '_703_positive_99DCT','Not eligible',if(${_164401_everTestedByProvider_99DCT}='_1065_yes_99DCT' and ${duration_since_last_test} &lt;= 12 and ${_159427_testResults_99DCT} = '_664_negative_99DCT', 'Not eligible',''))))</t>
   </si>
   <si>
     <t xml:space="preserve">note</t>
   </si>
   <si>
-    <t xml:space="preserve">no_of_days_note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Months since last tested: ${duration_since_last_test}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${_164401_everTestedByProvider_99DCT},'_1065_yes_99DCT') and selected(${patient_Test_Date_Known},'_1066_no_99DCT') </t>
-  </si>
-  <si>
-    <t xml:space="preserve">. &gt;= 1 and . &lt;= 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_162699_eligibleForTesting_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(${_164401_everTestedByProvider_99DCT}='_1065_yes_99DCT' and ${duration_since_last_test} &gt; 12 and ${_159427_testResults_99DCT} != '_703_positive_99DCT', '_1065_yes_99DCT', if(${_164401_everTestedByProvider_99DCT}='_1066_no_99DCT', '_1065_yes_99DCT', '_1066_no_99DCT'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screening_outcome_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(${_164401_everTestedByProvider_99DCT}='_1065_yes_99DCT' and ${duration_since_last_test} &gt; 12 and ${_159427_testResults_99DCT} != '_703_positive_99DCT', 'Eligible', if(${_164401_everTestedByProvider_99DCT}='_1066_no_99DCT', 'Eligible', if(${_164401_everTestedByProvider_99DCT}='_1065_yes_99DCT' and ${_159427_testResults_99DCT} = '_703_positive_99DCT','Not eligible',if(${_164401_everTestedByProvider_99DCT}='_1065_yes_99DCT' and ${duration_since_last_test} &lt;= 12 and ${_159427_testResults_99DCT} = '_664_negative_99DCT', 'Not eligible',''))))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${screening_outcome_text}</t>
-  </si>
-  <si>
     <t xml:space="preserve">outcome</t>
   </si>
   <si>
@@ -351,7 +330,13 @@
     <t xml:space="preserve">&lt;span style="color:red"&gt;HTS screening status: Not eligible&lt;/span&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">${screening_outcome_text}='Not eligible'</t>
+    <t xml:space="preserve">${screening_outcome_text}='Not eligible' and ${_164400_dateTested_99DCT} !=’’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_tested_positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${_164401_everTestedByProvider_99DCT},'_1065_yes_99DCT') and selected(${_159427_testResults_99DCT},'_703_positive_99DCT')</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
@@ -722,7 +707,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -866,421 +851,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="95">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
+  <dxfs count="49">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -1733,7 +1304,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF980000"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -1743,12 +1314,12 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF2CC"/>
-      <rgbColor rgb="FFCFE2F3"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFC27BA0"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D2E9"/>
+      <rgbColor rgb="FFCFE2F3"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1758,13 +1329,13 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFD9EAD3"/>
-      <rgbColor rgb="FFFCE5CD"/>
-      <rgbColor rgb="FFB7E1CD"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFEAD1DC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1794,27 +1365,27 @@
   <dimension ref="A1:AL65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.5765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="69.0255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.6173469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="75.9540816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="99.265306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="145.790816326531"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.3571428571429"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="48.7755102040816"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="46.3469387755102"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="58.4081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="27.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.4642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.8163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1377551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="73.9744897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="81.4438775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="106.551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="156.591836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.3367346938775"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="52.3775510204082"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="49.6785714285714"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="62.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="29.3367346938775"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,7 +2692,7 @@
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
         <v>59</v>
       </c>
@@ -3162,26 +2733,30 @@
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="E42" s="8" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="G42" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
@@ -3199,56 +2774,63 @@
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="4" t="s">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-    </row>
-    <row r="44" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="C44" s="8" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="I44" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
@@ -3271,7 +2853,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>19</v>
@@ -3282,7 +2864,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -3306,7 +2888,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>19</v>
@@ -3317,7 +2899,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -3336,18 +2918,20 @@
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -3369,19 +2953,19 @@
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -3404,19 +2988,19 @@
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -3441,18 +3025,18 @@
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -3508,17 +3092,17 @@
         <v>13</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8" t="s">
         <v>70</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -3542,13 +3126,13 @@
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3575,18 +3159,18 @@
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -3610,13 +3194,13 @@
     </row>
     <row r="55" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3643,18 +3227,18 @@
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -3678,13 +3262,13 @@
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3711,20 +3295,20 @@
     </row>
     <row r="58" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -3748,20 +3332,20 @@
     </row>
     <row r="59" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -3785,13 +3369,13 @@
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="4"/>
@@ -3818,20 +3402,20 @@
     </row>
     <row r="61" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -3855,20 +3439,20 @@
     </row>
     <row r="62" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -3892,13 +3476,13 @@
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3925,20 +3509,20 @@
     </row>
     <row r="64" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -3962,20 +3546,20 @@
     </row>
     <row r="65" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -4112,7 +3696,7 @@
         <v>13</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>19</v>
@@ -4136,7 +3720,7 @@
         <v>46</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>19</v>
@@ -4147,7 +3731,7 @@
       <c r="G71" s="16"/>
       <c r="H71" s="16"/>
       <c r="I71" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J71" s="16"/>
       <c r="K71" s="16"/>
@@ -4160,7 +3744,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>19</v>
@@ -4171,7 +3755,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -4216,785 +3800,944 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="label" dxfId="1"/>
+    <cfRule type="notContainsText" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="label" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" priority="5" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="5" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" priority="6" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="6" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" priority="7" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="7" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="constraint_message" dxfId="4"/>
+    <cfRule type="notContainsText" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="constraint_message" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" priority="9" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="9" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" priority="10" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="10" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="hint" dxfId="5"/>
+    <cfRule type="notContainsText" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="hint" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" priority="12" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="12" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:Y1">
-    <cfRule type="cellIs" priority="13" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" priority="13" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:Y39">
-    <cfRule type="containsText" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="6"/>
+    <cfRule type="containsText" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:Y39">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="containsText" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+    <cfRule type="containsText" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E39">
-    <cfRule type="containsText" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E39">
-    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A39">
-    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E39">
-    <cfRule type="containsText" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="17"/>
+    <cfRule type="containsText" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $I38 = "", $M38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E39">
-    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $I38 = "", $M38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:Y36">
-    <cfRule type="containsText" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="20"/>
+    <cfRule type="containsText" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:Y36">
-    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y42">
-    <cfRule type="containsText" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y42">
-    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
+  <conditionalFormatting sqref="A43:Y44">
+    <cfRule type="containsText" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y44">
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y44">
+    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y44">
+    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:A44">
+    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y44">
+    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y44">
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:I44">
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($I43 = "", $A43 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:C44">
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:B44">
+    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:H44">
+    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1019, "begin group") = COUNTIF($A$1:$A$1019, "end group"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1010, "begin group") = COUNTIF($A$1:$A$1019, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:Y50">
+    <cfRule type="containsText" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:Y50">
+    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:Y50">
+    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:Y50">
+    <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($I50 = "", $A50 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>COUNTIF($B$2:$B$1048,B50)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G50 = ""), $H50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:Y50">
+    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:Y50">
+    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E60">
+    <cfRule type="containsText" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E60">
+    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E60">
+    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E60">
+    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E60">
+    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E60">
+    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:Y62">
+    <cfRule type="containsText" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:Y62">
+    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:Y62">
+    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A62="end group", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:Y62">
+    <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($I62 = "", $A62 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $C62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $B62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G62 = ""), $H62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:Y62">
+    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:Y62">
+    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:Y67">
+    <cfRule type="containsText" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:Y67">
+    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:Y67">
+    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:Y67">
+    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($I67 = "", $A67 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $C67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $B67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G67 = ""), $H67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:Y67">
+    <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:Y67">
+    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:Y68">
+    <cfRule type="containsText" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:Y68">
+    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:Y68">
+    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:Y68">
+    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68">
+    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($I68 = "", $A68 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G68 = ""), $H68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:Y68">
+    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:Y68">
+    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="containsText" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="cellIs" priority="102" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="containsText" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" priority="109" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="containsText" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" priority="115" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+      <formula>AND($I66 = "", $A66 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="cellIs" priority="121" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+      <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+      <formula>COUNTIF($B$2:$B$1040,B68)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:Y45">
+    <cfRule type="containsText" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:Y45">
+    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:Y45">
+    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:Y45">
+    <cfRule type="cellIs" priority="127" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="cellIs" priority="128" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:Y45">
+    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:Y45">
+    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+      <formula>AND($I45 = "", $A45 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $C45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $B45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+      <formula>AND(NOT($G45 = ""), $H45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
+    <cfRule type="containsText" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
+    <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
+    <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
+    <cfRule type="cellIs" priority="138" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="cellIs" priority="139" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
+    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
+    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="expression" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>AND($I46 = "", $A46 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $C46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $B46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>AND(NOT($G46 = ""), $H46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>AND($I48 = "", $A48 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $C48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $B48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="cellIs" priority="149" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="expression" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>AND(NOT($G48 = ""), $H48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="containsText" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" priority="154" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+      <formula>AND($I47 = "", $A47 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+      <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $C47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+      <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $B47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="cellIs" priority="160" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="expression" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+      <formula>AND(NOT($G47 = ""), $H47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="containsText" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
+      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" priority="164" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+      <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" priority="165" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
+      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
+      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:Y41">
+    <cfRule type="containsText" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:Y41">
+    <cfRule type="expression" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y42">
-    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+  <conditionalFormatting sqref="A41:Y41">
+    <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y42">
-    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+  <conditionalFormatting sqref="A41:Y41">
+    <cfRule type="cellIs" priority="171" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:A42">
-    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+  <conditionalFormatting sqref="A41">
+    <cfRule type="cellIs" priority="172" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y42">
-    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+  <conditionalFormatting sqref="A41:Y41">
+    <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y42">
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+  <conditionalFormatting sqref="A41:Y41">
+    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I42">
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+  <conditionalFormatting sqref="I41">
+    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I41 = "", $A41 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:C42">
-    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+  <conditionalFormatting sqref="C41">
+    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $C41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B42">
-    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $B41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H42">
-    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+  <conditionalFormatting sqref="H41">
+    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(NOT($G41 = ""), $H41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1019, "begin group") = COUNTIF($A$1:$A$1019, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1010, "begin group") = COUNTIF($A$1:$A$1019, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:Y50">
-    <cfRule type="containsText" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:Y50">
-    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:Y50">
-    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:Y50">
-    <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+  <conditionalFormatting sqref="A42:Y42">
+    <cfRule type="containsText" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:Y42">
+    <cfRule type="expression" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:Y42">
+    <cfRule type="expression" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:Y42">
+    <cfRule type="cellIs" priority="182" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
-    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($I50 = "", $A50 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+  <conditionalFormatting sqref="A42">
+    <cfRule type="cellIs" priority="183" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>COUNTIF($B$2:$B$1048,B50)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND(NOT($G50 = ""), $H50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:Y50">
-    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:Y50">
-    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E60">
-    <cfRule type="containsText" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E60">
-    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+  <conditionalFormatting sqref="A42:Y42">
+    <cfRule type="expression" priority="184" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:Y42">
+    <cfRule type="expression" priority="185" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="expression" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($I42 = "", $A42 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $C42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $B42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="expression" priority="189" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G42 = ""), $H42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="expression" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>AND($I48 = "", $A48 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" priority="191" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $C48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" priority="192" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $B48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="cellIs" priority="193" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="expression" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>AND(NOT($G48 = ""), $H48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="containsText" priority="195" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" priority="196" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" priority="197" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" priority="198" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E60">
-    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E60">
-    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E60">
-    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E60">
-    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:Y62">
-    <cfRule type="containsText" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:Y62">
-    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:Y62">
-    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A62="end group", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:Y62">
-    <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($I62 = "", $A62 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $C62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $B62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND(NOT($G62 = ""), $H62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:Y62">
-    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:Y62">
-    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:Y67">
-    <cfRule type="containsText" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:Y67">
-    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:Y67">
-    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:Y67">
-    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67">
-    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($I67 = "", $A67 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $C67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $B67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND(NOT($G67 = ""), $H67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:Y67">
-    <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:Y67">
-    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:Y68">
-    <cfRule type="containsText" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:Y68">
-    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:Y68">
-    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:Y68">
-    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I68">
-    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($I68 = "", $A68 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
-      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
-      <formula>AND(NOT($G68 = ""), $H68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:Y68">
-    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
-      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:Y68">
-    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
-      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
-      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
-      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="cellIs" priority="102" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
-      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" priority="109" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" priority="115" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
-      <formula>AND($I66 = "", $A66 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" priority="121" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
-      <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
-      <formula>COUNTIF($B$2:$B$1040,B68)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
-    <cfRule type="containsText" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
-    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
-      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
-    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
-      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
-    <cfRule type="cellIs" priority="127" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="cellIs" priority="128" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
-    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
-      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
-    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
-      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND($I45 = "", $A45 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
-      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $C45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
-      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $B45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
-      <formula>AND(NOT($G45 = ""), $H45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:Y47">
-    <cfRule type="containsText" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:Y47">
-    <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
-      <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:Y47">
-    <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
-      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:Y47">
-    <cfRule type="cellIs" priority="138" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:A47">
-    <cfRule type="cellIs" priority="139" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:Y47">
-    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
-      <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:Y47">
-    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
-      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:I47">
-    <cfRule type="expression" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
-      <formula>AND($I46 = "", $A46 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:C47">
-    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
-      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $C46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46:B47">
-    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="75">
-      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $B46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46:H47">
-    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
-      <formula>AND(NOT($G46 = ""), $H46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
-      <formula>AND($I49 = "", $A49 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
-      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $C49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
-      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $B49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" priority="149" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="expression" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
-      <formula>AND(NOT($G49 = ""), $H49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="80"/>
+    <cfRule type="expression" priority="199" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
-      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
-      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" priority="154" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="83">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="84">
-      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
-      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="86">
-      <formula>AND($I48 = "", $A48 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
-      <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $C48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
-      <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $B48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" priority="160" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="expression" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
-      <formula>AND(NOT($G48 = ""), $H48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="containsText" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
-      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="164" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
-      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" priority="165" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
-      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94">
+    <cfRule type="expression" priority="200" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
       <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5024,20 +4767,20 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.1275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.7448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="27.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.6377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="65.1581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="82.8826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="29.3367346938775"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
@@ -5051,13 +4794,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -5065,13 +4808,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -5103,13 +4846,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -5117,13 +4860,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -5139,13 +4882,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -5153,13 +4896,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -5183,13 +4926,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -5197,13 +4940,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -5211,35 +4954,35 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>179</v>
-      </c>
       <c r="C20" s="0" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="1048504" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5272,47 +5015,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="27.3571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.7295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="27.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="29.3367346938775"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="29.3367346938775"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C2" s="20" t="n">
         <f aca="true">NOW()</f>
-        <v>44302.5981368549</v>
+        <v>44320.4059436666</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F2" s="11"/>
     </row>
